--- a/- PCB -/SUMEC SMD-V2/bom/Additonal BOM.xlsx
+++ b/- PCB -/SUMEC SMD-V2/bom/Additonal BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\RoboCop\- PCB -\SUMEC SMD-V2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0071A7-9AA6-4CE1-B122-DF89B2C87630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE28145B-BF95-4AF8-A75A-39F5977EDA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sumecBOM" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
     <t>Conn_01x06_Pin</t>
   </si>
   <si>
@@ -74,25 +68,49 @@
     <t>J5,J4,J6</t>
   </si>
   <si>
-    <t>TF-LUNA MALE 6PIN</t>
-  </si>
-  <si>
-    <t>QRE BRD HORIZONTAL MALE 4PIN</t>
-  </si>
-  <si>
-    <t>QRE MAIN BRD MALE 4PIN</t>
-  </si>
-  <si>
     <t>J10</t>
   </si>
   <si>
     <t>J8,J7</t>
   </si>
   <si>
-    <t>QRE SNGL</t>
-  </si>
-  <si>
-    <t>SHARP1 AND 2</t>
+    <t>PicoBlade, 3P, 75mm, Female to Blunt</t>
+  </si>
+  <si>
+    <t>Quantity to order</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>QRE SNGL, 3PIN</t>
+  </si>
+  <si>
+    <t>TF-LUNA, MALE, 6PIN</t>
+  </si>
+  <si>
+    <t>SHARP1-2, 3PIN</t>
+  </si>
+  <si>
+    <t>MAIN BRD TO QRE MINIBRD MALE, 4PIN</t>
+  </si>
+  <si>
+    <t>PicoBlade, 4P, 100mm, Female to Female</t>
+  </si>
+  <si>
+    <t>PicoBlade, 6P, 100mm Female to Female</t>
+  </si>
+  <si>
+    <t>SPDT Switch</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>Custom_SPDT_4.8mm_Switch</t>
+  </si>
+  <si>
+    <t>SW_DPDT_x2</t>
   </si>
 </sst>
 </file>
@@ -692,7 +710,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,10 +741,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,8 +752,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1113,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1127,7 +1148,7 @@
     <col min="5" max="5" width="18.81640625" customWidth="1"/>
     <col min="6" max="6" width="35.6328125" customWidth="1"/>
     <col min="7" max="7" width="23.90625" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
     <col min="9" max="9" width="34.54296875" customWidth="1"/>
     <col min="10" max="10" width="36.81640625" customWidth="1"/>
   </cols>
@@ -1140,22 +1161,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1163,18 +1184,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1182,16 +1209,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1200,54 +1231,72 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
@@ -1255,39 +1304,27 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
       <c r="F10" s="14"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1299,7 +1336,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="12"/>
       <c r="I11" s="16"/>
@@ -1322,7 +1359,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
@@ -1344,7 +1381,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="13"/>
@@ -1355,7 +1392,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
@@ -1366,7 +1403,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="13"/>
@@ -1377,7 +1414,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
@@ -1520,7 +1557,7 @@
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="13"/>
@@ -1542,7 +1579,7 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="17"/>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
@@ -1553,7 +1590,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -1564,7 +1601,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -1574,7 +1611,7 @@
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
@@ -1582,14 +1619,14 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
@@ -1605,6 +1642,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
@@ -1617,7 +1655,6 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
@@ -1642,10 +1679,12 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
@@ -1658,20 +1697,20 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
@@ -1681,20 +1720,20 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
@@ -1737,11 +1776,20 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F74" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{113D8F15-84E6-4A3B-B250-14D2BE2A4A83}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{E3E18C19-5084-40D8-843E-CC0419A04517}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{7B430F16-D759-4DAC-91ED-C92A7D7C6B0F}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{0239F62C-2C0E-4B8E-9D02-B65A383B4D43}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{282954A2-9ED1-40CC-9B47-B8CF1678F273}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>